--- a/va_facility_data_2025-02-20/Mann-Grandstaff Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Mann-Grandstaff%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Mann-Grandstaff Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Mann-Grandstaff%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R948823d8e1ac40baa746fc9905123c0e"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R949fc06c677f4603b0d6ca35894d5534"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rd0dad92d8469454cbf4da4c4de3b35dd"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R9d0edff615564dce8bbac2dc13309324"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R381011fdbc424b7095e18ab7563857b0"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R831a15165b5e4389b77b403747707627"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R90a9c46487d44f46ac2369e58e3bb3df"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rb08910e133f04952b7e32208e67709a8"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R5044b84b29b94997a42992ac23149d97"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R27f0f0b849014e97829edced89e21c9f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R6a08be0aa22a46eea91b483dd7f09689"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R70576c50b5394f6a82afd2b74799c7c2"/>
   </x:sheets>
 </x:workbook>
 </file>
